--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_50pct/Tests_DM/dm_completo_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_50pct/Tests_DM/dm_completo_General.xlsx
@@ -462,25 +462,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -503,10 +503,10 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -523,7 +523,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>-1</v>
@@ -535,13 +535,13 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -555,7 +555,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>-1</v>
@@ -567,10 +567,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -590,25 +590,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -619,19 +619,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -651,19 +651,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>-1</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -724,19 +724,19 @@
         <v>-1</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>-1</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>3.264493786403477E-09</v>
+        <v>0.00232213727036501</v>
       </c>
       <c r="D2">
-        <v>2.611251148643134E-08</v>
+        <v>0.003364046601608939</v>
       </c>
       <c r="E2">
-        <v>2.045961813124109E-05</v>
+        <v>0.01051944376908454</v>
       </c>
       <c r="F2">
-        <v>0.001865076791414122</v>
+        <v>0.04955890974999688</v>
       </c>
       <c r="G2">
-        <v>2.795699227675641E-09</v>
+        <v>0.003435303304379911</v>
       </c>
       <c r="H2">
-        <v>2.768590690038764E-09</v>
+        <v>0.00343121755398057</v>
       </c>
       <c r="I2">
-        <v>6.144751374392854E-10</v>
+        <v>0.002508875049209935</v>
       </c>
       <c r="J2">
-        <v>0.003318709961778188</v>
+        <v>0.02642537288565316</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -821,31 +821,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.264493786403477E-09</v>
+        <v>0.00232213727036501</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2.917070997532356E-05</v>
       </c>
       <c r="E3">
-        <v>3.874678355941796E-13</v>
+        <v>0.0004163570426174434</v>
       </c>
       <c r="F3">
-        <v>3.462636177786749E-09</v>
+        <v>0.001819778583110443</v>
       </c>
       <c r="G3">
-        <v>1.044312869957764E-06</v>
+        <v>0.001461336250830003</v>
       </c>
       <c r="H3">
-        <v>1.650447462697713E-06</v>
+        <v>0.001053524306092068</v>
       </c>
       <c r="I3">
-        <v>0.004647342852501568</v>
+        <v>0.03735020695915825</v>
       </c>
       <c r="J3">
-        <v>5.657696533489798E-13</v>
+        <v>0.0006577743106987999</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -853,31 +853,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.611251148643134E-08</v>
+        <v>0.003364046601608939</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2.917070997532356E-05</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1.78992376476117E-10</v>
+        <v>0.0009375623716423309</v>
       </c>
       <c r="F4">
-        <v>3.326107966827863E-08</v>
+        <v>0.002700922160544961</v>
       </c>
       <c r="G4">
-        <v>0.001061969349060998</v>
+        <v>0.01616760701843534</v>
       </c>
       <c r="H4">
-        <v>0.000705573010471916</v>
+        <v>0.007008314228470036</v>
       </c>
       <c r="I4">
-        <v>0.09738993019154818</v>
+        <v>0.1985018123831537</v>
       </c>
       <c r="J4">
-        <v>2.013988975591019E-11</v>
+        <v>0.001092096716558189</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -885,31 +885,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.045961813124109E-05</v>
+        <v>0.01051944376908454</v>
       </c>
       <c r="C5">
-        <v>3.874678355941796E-13</v>
+        <v>0.0004163570426174434</v>
       </c>
       <c r="D5">
-        <v>1.78992376476117E-10</v>
+        <v>0.0009375623716423309</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>4.801857383029962E-05</v>
+        <v>0.009319117563492574</v>
       </c>
       <c r="G5">
-        <v>0.0007143844836694502</v>
+        <v>0.02078658305101411</v>
       </c>
       <c r="H5">
-        <v>0.004200165498183139</v>
+        <v>0.01204500379729545</v>
       </c>
       <c r="I5">
-        <v>0.01978711505409292</v>
+        <v>0.08614962132361881</v>
       </c>
       <c r="J5">
-        <v>1.06489039672919E-05</v>
+        <v>0.0081070354815167</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -917,31 +917,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.001865076791414122</v>
+        <v>0.04955890974999688</v>
       </c>
       <c r="C6">
-        <v>3.462636177786749E-09</v>
+        <v>0.001819778583110443</v>
       </c>
       <c r="D6">
-        <v>3.326107966827863E-08</v>
+        <v>0.002700922160544961</v>
       </c>
       <c r="E6">
-        <v>4.801857383029962E-05</v>
+        <v>0.009319117563492574</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.18972914747917E-09</v>
+        <v>0.002639943580309945</v>
       </c>
       <c r="H6">
-        <v>3.161892969671953E-09</v>
+        <v>0.002652109936424951</v>
       </c>
       <c r="I6">
-        <v>6.676124097992897E-10</v>
+        <v>0.002060209066193197</v>
       </c>
       <c r="J6">
-        <v>0.01500099317487003</v>
+        <v>0.03490487857461577</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -949,31 +949,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.795699227675641E-09</v>
+        <v>0.003435303304379911</v>
       </c>
       <c r="C7">
-        <v>1.044312869957764E-06</v>
+        <v>0.001461336250830003</v>
       </c>
       <c r="D7">
-        <v>0.001061969349060998</v>
+        <v>0.01616760701843534</v>
       </c>
       <c r="E7">
-        <v>0.0007143844836694502</v>
+        <v>0.02078658305101411</v>
       </c>
       <c r="F7">
-        <v>3.18972914747917E-09</v>
+        <v>0.002639943580309945</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.3937835973799442</v>
+        <v>0.4327896701971903</v>
       </c>
       <c r="I7">
-        <v>0.6226725530699693</v>
+        <v>0.6510782794572643</v>
       </c>
       <c r="J7">
-        <v>3.540177484495644E-09</v>
+        <v>0.002084086427770915</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -981,31 +981,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.768590690038764E-09</v>
+        <v>0.00343121755398057</v>
       </c>
       <c r="C8">
-        <v>1.650447462697713E-06</v>
+        <v>0.001053524306092068</v>
       </c>
       <c r="D8">
-        <v>0.000705573010471916</v>
+        <v>0.007008314228470036</v>
       </c>
       <c r="E8">
-        <v>0.004200165498183139</v>
+        <v>0.01204500379729545</v>
       </c>
       <c r="F8">
-        <v>3.161892969671953E-09</v>
+        <v>0.002652109936424951</v>
       </c>
       <c r="G8">
-        <v>0.3937835973799442</v>
+        <v>0.4327896701971903</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.434738502770859</v>
+        <v>0.4984043110240182</v>
       </c>
       <c r="J8">
-        <v>8.712618715378539E-08</v>
+        <v>0.001358454403508125</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1013,31 +1013,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.144751374392854E-10</v>
+        <v>0.002508875049209935</v>
       </c>
       <c r="C9">
-        <v>0.004647342852501568</v>
+        <v>0.03735020695915825</v>
       </c>
       <c r="D9">
-        <v>0.09738993019154818</v>
+        <v>0.1985018123831537</v>
       </c>
       <c r="E9">
-        <v>0.01978711505409292</v>
+        <v>0.08614962132361881</v>
       </c>
       <c r="F9">
-        <v>6.676124097992897E-10</v>
+        <v>0.002060209066193197</v>
       </c>
       <c r="G9">
-        <v>0.6226725530699693</v>
+        <v>0.6510782794572643</v>
       </c>
       <c r="H9">
-        <v>0.434738502770859</v>
+        <v>0.4984043110240182</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.147240198173805E-06</v>
+        <v>0.003348033413496765</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1045,28 +1045,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.003318709961778188</v>
+        <v>0.02642537288565316</v>
       </c>
       <c r="C10">
-        <v>5.657696533489798E-13</v>
+        <v>0.0006577743106987999</v>
       </c>
       <c r="D10">
-        <v>2.013988975591019E-11</v>
+        <v>0.001092096716558189</v>
       </c>
       <c r="E10">
-        <v>1.06489039672919E-05</v>
+        <v>0.0081070354815167</v>
       </c>
       <c r="F10">
-        <v>0.01500099317487003</v>
+        <v>0.03490487857461577</v>
       </c>
       <c r="G10">
-        <v>3.540177484495644E-09</v>
+        <v>0.002084086427770915</v>
       </c>
       <c r="H10">
-        <v>8.712618715378539E-08</v>
+        <v>0.001358454403508125</v>
       </c>
       <c r="I10">
-        <v>1.147240198173805E-06</v>
+        <v>0.003348033413496765</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1122,28 +1122,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.954944160008384</v>
+        <v>3.442660304579882</v>
       </c>
       <c r="D2">
-        <v>5.596753027062421</v>
+        <v>3.287018271814858</v>
       </c>
       <c r="E2">
-        <v>4.274025954586831</v>
+        <v>2.796473722301279</v>
       </c>
       <c r="F2">
-        <v>3.116697274512404</v>
+        <v>2.078248836747459</v>
       </c>
       <c r="G2">
-        <v>5.98087204681838</v>
+        <v>3.2781720493548</v>
       </c>
       <c r="H2">
-        <v>5.98249835060005</v>
+        <v>3.278674436326821</v>
       </c>
       <c r="I2">
-        <v>6.229133974711942</v>
+        <v>3.410297521038933</v>
       </c>
       <c r="J2">
-        <v>2.941480577780107</v>
+        <v>2.379654476726118</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1151,31 +1151,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-5.954944160008384</v>
+        <v>-3.442660304579882</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-9.841607636397773</v>
+        <v>-5.244970318175312</v>
       </c>
       <c r="E3">
-        <v>-7.328189051126276</v>
+        <v>-4.151892140990231</v>
       </c>
       <c r="F3">
-        <v>-5.945061974006788</v>
+        <v>-3.544308304162992</v>
       </c>
       <c r="G3">
-        <v>-4.904255672779035</v>
+        <v>-3.635376023382044</v>
       </c>
       <c r="H3">
-        <v>-4.812123679561717</v>
+        <v>-3.770632368888417</v>
       </c>
       <c r="I3">
-        <v>-2.834950958141317</v>
+        <v>-2.215914064081026</v>
       </c>
       <c r="J3">
-        <v>-7.275344756979275</v>
+        <v>-3.964416740307003</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1183,31 +1183,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-5.596753027062421</v>
+        <v>-3.287018271814858</v>
       </c>
       <c r="C4">
-        <v>9.841607636397773</v>
+        <v>5.244970318175312</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-6.424839895069144</v>
+        <v>-3.818694910841425</v>
       </c>
       <c r="F4">
-        <v>-5.553719545453528</v>
+        <v>-3.379381633110052</v>
       </c>
       <c r="G4">
-        <v>-3.280248726404808</v>
+        <v>-2.604939528684409</v>
       </c>
       <c r="H4">
-        <v>-3.394760068057742</v>
+        <v>-2.973714205662922</v>
       </c>
       <c r="I4">
-        <v>-1.658721102112183</v>
+        <v>-1.325820200266363</v>
       </c>
       <c r="J4">
-        <v>-6.758906338496674</v>
+        <v>-3.755798272031607</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1215,31 +1215,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-4.274025954586831</v>
+        <v>-2.796473722301279</v>
       </c>
       <c r="C5">
-        <v>7.328189051126276</v>
+        <v>4.151892140990231</v>
       </c>
       <c r="D5">
-        <v>6.424839895069144</v>
+        <v>3.818694910841425</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-4.07747744498144</v>
+        <v>-2.849693640197735</v>
       </c>
       <c r="G5">
-        <v>3.391332945342545</v>
+        <v>2.490659316536247</v>
       </c>
       <c r="H5">
-        <v>2.867303742502421</v>
+        <v>2.736604789728622</v>
       </c>
       <c r="I5">
-        <v>2.332966574869858</v>
+        <v>1.796567395782656</v>
       </c>
       <c r="J5">
-        <v>-4.41920839230623</v>
+        <v>-2.91052663255958</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1247,31 +1247,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-3.116697274512404</v>
+        <v>-2.078248836747459</v>
       </c>
       <c r="C6">
-        <v>5.945061974006788</v>
+        <v>3.544308304162992</v>
       </c>
       <c r="D6">
-        <v>5.553719545453528</v>
+        <v>3.379381633110052</v>
       </c>
       <c r="E6">
-        <v>4.07747744498144</v>
+        <v>2.849693640197735</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>5.958825652575907</v>
+        <v>3.388959000717004</v>
       </c>
       <c r="H6">
-        <v>5.960293486889648</v>
+        <v>3.38703101784544</v>
       </c>
       <c r="I6">
-        <v>6.215775052576061</v>
+        <v>3.492627954080702</v>
       </c>
       <c r="J6">
-        <v>2.43528111288698</v>
+        <v>2.248335654680929</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1279,31 +1279,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-5.98087204681838</v>
+        <v>-3.2781720493548</v>
       </c>
       <c r="C7">
-        <v>4.904255672779035</v>
+        <v>3.635376023382044</v>
       </c>
       <c r="D7">
-        <v>3.280248726404808</v>
+        <v>2.604939528684409</v>
       </c>
       <c r="E7">
-        <v>-3.391332945342545</v>
+        <v>-2.490659316536247</v>
       </c>
       <c r="F7">
-        <v>-5.958825652575907</v>
+        <v>-3.388959000717004</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>-0.8530318586926694</v>
+        <v>-0.7990752195082508</v>
       </c>
       <c r="I7">
-        <v>0.49217239360764</v>
+        <v>0.4585172155200827</v>
       </c>
       <c r="J7">
-        <v>-5.941344002810581</v>
+        <v>-3.487822442158532</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1311,31 +1311,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-5.98249835060005</v>
+        <v>-3.278674436326821</v>
       </c>
       <c r="C8">
-        <v>4.812123679561717</v>
+        <v>3.770632368888417</v>
       </c>
       <c r="D8">
-        <v>3.394760068057742</v>
+        <v>2.973714205662922</v>
       </c>
       <c r="E8">
-        <v>-2.867303742502421</v>
+        <v>-2.736604789728622</v>
       </c>
       <c r="F8">
-        <v>-5.960293486889648</v>
+        <v>-3.38703101784544</v>
       </c>
       <c r="G8">
-        <v>0.8530318586926694</v>
+        <v>0.7990752195082508</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.7813273642587851</v>
+        <v>0.6883871919935181</v>
       </c>
       <c r="J8">
-        <v>-5.379393736493417</v>
+        <v>-3.665608963564621</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1343,31 +1343,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-6.229133974711942</v>
+        <v>-3.410297521038933</v>
       </c>
       <c r="C9">
-        <v>2.834950958141317</v>
+        <v>2.215914064081026</v>
       </c>
       <c r="D9">
-        <v>1.658721102112183</v>
+        <v>1.325820200266363</v>
       </c>
       <c r="E9">
-        <v>-2.332966574869858</v>
+        <v>-1.796567395782656</v>
       </c>
       <c r="F9">
-        <v>-6.215775052576061</v>
+        <v>-3.492627954080702</v>
       </c>
       <c r="G9">
-        <v>-0.49217239360764</v>
+        <v>-0.4585172155200827</v>
       </c>
       <c r="H9">
-        <v>-0.7813273642587851</v>
+        <v>-0.6883871919935181</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-4.885460776121029</v>
+        <v>-3.289031301444221</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1375,28 +1375,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-2.941480577780107</v>
+        <v>-2.379654476726118</v>
       </c>
       <c r="C10">
-        <v>7.275344756979275</v>
+        <v>3.964416740307003</v>
       </c>
       <c r="D10">
-        <v>6.758906338496674</v>
+        <v>3.755798272031607</v>
       </c>
       <c r="E10">
-        <v>4.41920839230623</v>
+        <v>2.91052663255958</v>
       </c>
       <c r="F10">
-        <v>-2.43528111288698</v>
+        <v>-2.248335654680929</v>
       </c>
       <c r="G10">
-        <v>5.941344002810581</v>
+        <v>3.487822442158532</v>
       </c>
       <c r="H10">
-        <v>5.379393736493417</v>
+        <v>3.665608963564621</v>
       </c>
       <c r="I10">
-        <v>4.885460776121029</v>
+        <v>3.289031301444221</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1440,16 +1440,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>87.5</v>
+        <v>50</v>
       </c>
       <c r="F2">
         <v>0.5800196476824288</v>
@@ -1460,16 +1460,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="F3">
         <v>0.8081876453848597</v>
@@ -1477,42 +1477,42 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>12.5</v>
       </c>
       <c r="F4">
-        <v>1.187908763415526</v>
+        <v>1.243186337533633</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.126506566211152</v>
+        <v>3.108082487074975</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1520,16 +1520,16 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>1.611972106168202</v>
@@ -1537,62 +1537,62 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1.243186337533633</v>
+        <v>2.937753049473157</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.108082487074975</v>
+        <v>1.187908763415526</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.937753049473157</v>
+        <v>1.126506566211152</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_50pct/Tests_DM/dm_completo_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_50pct/Tests_DM/dm_completo_General.xlsx
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -718,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.00232213727036501</v>
+        <v>0.004756311080556852</v>
       </c>
       <c r="D2">
-        <v>0.003364046601608939</v>
+        <v>0.007039928260205164</v>
       </c>
       <c r="E2">
-        <v>0.01051944376908454</v>
+        <v>0.0072199325401614</v>
       </c>
       <c r="F2">
-        <v>0.04955890974999688</v>
+        <v>0.02438222317821515</v>
       </c>
       <c r="G2">
-        <v>0.003435303304379911</v>
+        <v>0.004235392549476469</v>
       </c>
       <c r="H2">
-        <v>0.00343121755398057</v>
+        <v>0.004745912505201622</v>
       </c>
       <c r="I2">
-        <v>0.002508875049209935</v>
+        <v>0.001968963842718718</v>
       </c>
       <c r="J2">
-        <v>0.02642537288565316</v>
+        <v>0.004691273013397002</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -821,31 +821,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.00232213727036501</v>
+        <v>0.004756311080556852</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2.917070997532356E-05</v>
+        <v>2.813655208822041E-07</v>
       </c>
       <c r="E3">
-        <v>0.0004163570426174434</v>
+        <v>1.051356035564055E-07</v>
       </c>
       <c r="F3">
-        <v>0.001819778583110443</v>
+        <v>0.004067123131740402</v>
       </c>
       <c r="G3">
-        <v>0.001461336250830003</v>
+        <v>0.01008908645302364</v>
       </c>
       <c r="H3">
-        <v>0.001053524306092068</v>
+        <v>0.006625822195961195</v>
       </c>
       <c r="I3">
-        <v>0.03735020695915825</v>
+        <v>0.04150571558401195</v>
       </c>
       <c r="J3">
-        <v>0.0006577743106987999</v>
+        <v>0.006884760721298289</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -853,31 +853,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.003364046601608939</v>
+        <v>0.007039928260205164</v>
       </c>
       <c r="C4">
-        <v>2.917070997532356E-05</v>
+        <v>2.813655208822041E-07</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.0009375623716423309</v>
+        <v>8.347288180443613E-06</v>
       </c>
       <c r="F4">
-        <v>0.002700922160544961</v>
+        <v>0.006309264045232243</v>
       </c>
       <c r="G4">
-        <v>0.01616760701843534</v>
+        <v>0.05829165430317107</v>
       </c>
       <c r="H4">
-        <v>0.007008314228470036</v>
+        <v>0.03738255975093718</v>
       </c>
       <c r="I4">
-        <v>0.1985018123831537</v>
+        <v>0.1483829906689018</v>
       </c>
       <c r="J4">
-        <v>0.001092096716558189</v>
+        <v>0.01413775625846481</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -885,31 +885,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.01051944376908454</v>
+        <v>0.0072199325401614</v>
       </c>
       <c r="C5">
-        <v>0.0004163570426174434</v>
+        <v>1.051356035564055E-07</v>
       </c>
       <c r="D5">
-        <v>0.0009375623716423309</v>
+        <v>8.347288180443613E-06</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.009319117563492574</v>
+        <v>0.006490372045347748</v>
       </c>
       <c r="G5">
-        <v>0.02078658305101411</v>
+        <v>0.06314625690164055</v>
       </c>
       <c r="H5">
-        <v>0.01204500379729545</v>
+        <v>0.0406509702004143</v>
       </c>
       <c r="I5">
-        <v>0.08614962132361881</v>
+        <v>0.1558916164372994</v>
       </c>
       <c r="J5">
-        <v>0.0081070354815167</v>
+        <v>0.01478851020188587</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -917,31 +917,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04955890974999688</v>
+        <v>0.02438222317821515</v>
       </c>
       <c r="C6">
-        <v>0.001819778583110443</v>
+        <v>0.004067123131740402</v>
       </c>
       <c r="D6">
-        <v>0.002700922160544961</v>
+        <v>0.006309264045232243</v>
       </c>
       <c r="E6">
-        <v>0.009319117563492574</v>
+        <v>0.006490372045347748</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.002639943580309945</v>
+        <v>0.003340492368648862</v>
       </c>
       <c r="H6">
-        <v>0.002652109936424951</v>
+        <v>0.003790428126533518</v>
       </c>
       <c r="I6">
-        <v>0.002060209066193197</v>
+        <v>0.001291478554793946</v>
       </c>
       <c r="J6">
-        <v>0.03490487857461577</v>
+        <v>0.004166194986053862</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -949,31 +949,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.003435303304379911</v>
+        <v>0.004235392549476469</v>
       </c>
       <c r="C7">
-        <v>0.001461336250830003</v>
+        <v>0.01008908645302364</v>
       </c>
       <c r="D7">
-        <v>0.01616760701843534</v>
+        <v>0.05829165430317107</v>
       </c>
       <c r="E7">
-        <v>0.02078658305101411</v>
+        <v>0.06314625690164055</v>
       </c>
       <c r="F7">
-        <v>0.002639943580309945</v>
+        <v>0.003340492368648862</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.4327896701971903</v>
+        <v>0.04125534208993309</v>
       </c>
       <c r="I7">
-        <v>0.6510782794572643</v>
+        <v>0.9780309015651154</v>
       </c>
       <c r="J7">
-        <v>0.002084086427770915</v>
+        <v>0.009071252239267524</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -981,31 +981,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.00343121755398057</v>
+        <v>0.004745912505201622</v>
       </c>
       <c r="C8">
-        <v>0.001053524306092068</v>
+        <v>0.006625822195961195</v>
       </c>
       <c r="D8">
-        <v>0.007008314228470036</v>
+        <v>0.03738255975093718</v>
       </c>
       <c r="E8">
-        <v>0.01204500379729545</v>
+        <v>0.0406509702004143</v>
       </c>
       <c r="F8">
-        <v>0.002652109936424951</v>
+        <v>0.003790428126533518</v>
       </c>
       <c r="G8">
-        <v>0.4327896701971903</v>
+        <v>0.04125534208993309</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.4984043110240182</v>
+        <v>0.6163853582746985</v>
       </c>
       <c r="J8">
-        <v>0.001358454403508125</v>
+        <v>0.01262030401786807</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1013,31 +1013,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.002508875049209935</v>
+        <v>0.001968963842718718</v>
       </c>
       <c r="C9">
-        <v>0.03735020695915825</v>
+        <v>0.04150571558401195</v>
       </c>
       <c r="D9">
-        <v>0.1985018123831537</v>
+        <v>0.1483829906689018</v>
       </c>
       <c r="E9">
-        <v>0.08614962132361881</v>
+        <v>0.1558916164372994</v>
       </c>
       <c r="F9">
-        <v>0.002060209066193197</v>
+        <v>0.001291478554793946</v>
       </c>
       <c r="G9">
-        <v>0.6510782794572643</v>
+        <v>0.9780309015651154</v>
       </c>
       <c r="H9">
-        <v>0.4984043110240182</v>
+        <v>0.6163853582746985</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.003348033413496765</v>
+        <v>0.00317774778480362</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1045,28 +1045,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.02642537288565316</v>
+        <v>0.004691273013397002</v>
       </c>
       <c r="C10">
-        <v>0.0006577743106987999</v>
+        <v>0.006884760721298289</v>
       </c>
       <c r="D10">
-        <v>0.001092096716558189</v>
+        <v>0.01413775625846481</v>
       </c>
       <c r="E10">
-        <v>0.0081070354815167</v>
+        <v>0.01478851020188587</v>
       </c>
       <c r="F10">
-        <v>0.03490487857461577</v>
+        <v>0.004166194986053862</v>
       </c>
       <c r="G10">
-        <v>0.002084086427770915</v>
+        <v>0.009071252239267524</v>
       </c>
       <c r="H10">
-        <v>0.001358454403508125</v>
+        <v>0.01262030401786807</v>
       </c>
       <c r="I10">
-        <v>0.003348033413496765</v>
+        <v>0.00317774778480362</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1122,28 +1122,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.442660304579882</v>
+        <v>3.021237099108609</v>
       </c>
       <c r="D2">
-        <v>3.287018271814858</v>
+        <v>2.868398611672548</v>
       </c>
       <c r="E2">
-        <v>2.796473722301279</v>
+        <v>2.858433992332853</v>
       </c>
       <c r="F2">
-        <v>2.078248836747459</v>
+        <v>2.355930869355016</v>
       </c>
       <c r="G2">
-        <v>3.2781720493548</v>
+        <v>3.065800963017368</v>
       </c>
       <c r="H2">
-        <v>3.278674436326821</v>
+        <v>3.02208055122803</v>
       </c>
       <c r="I2">
-        <v>3.410297521038933</v>
+        <v>3.353713525219632</v>
       </c>
       <c r="J2">
-        <v>2.379654476726118</v>
+        <v>3.026541387992445</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1151,31 +1151,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-3.442660304579882</v>
+        <v>-3.021237099108609</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-5.244970318175312</v>
+        <v>-6.375553661312564</v>
       </c>
       <c r="E3">
-        <v>-4.151892140990231</v>
+        <v>-6.708393689785492</v>
       </c>
       <c r="F3">
-        <v>-3.544308304162992</v>
+        <v>-3.0813106888064</v>
       </c>
       <c r="G3">
-        <v>-3.635376023382044</v>
+        <v>-2.724813443326293</v>
       </c>
       <c r="H3">
-        <v>-3.770632368888417</v>
+        <v>-2.892261433985731</v>
       </c>
       <c r="I3">
-        <v>-2.215914064081026</v>
+        <v>-2.118656552782978</v>
       </c>
       <c r="J3">
-        <v>-3.964416740307003</v>
+        <v>-2.877181935285969</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1183,31 +1183,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-3.287018271814858</v>
+        <v>-2.868398611672548</v>
       </c>
       <c r="C4">
-        <v>5.244970318175312</v>
+        <v>6.375553661312564</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-3.818694910841425</v>
+        <v>-5.241453348708777</v>
       </c>
       <c r="F4">
-        <v>-3.379381633110052</v>
+        <v>-2.911466820326202</v>
       </c>
       <c r="G4">
-        <v>-2.604939528684409</v>
+        <v>-1.959520063057639</v>
       </c>
       <c r="H4">
-        <v>-2.973714205662922</v>
+        <v>-2.166394623547503</v>
       </c>
       <c r="I4">
-        <v>-1.325820200266363</v>
+        <v>-1.478862264471093</v>
       </c>
       <c r="J4">
-        <v>-3.755798272031607</v>
+        <v>-2.586859049921973</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1215,31 +1215,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-2.796473722301279</v>
+        <v>-2.858433992332853</v>
       </c>
       <c r="C5">
-        <v>4.151892140990231</v>
+        <v>6.708393689785492</v>
       </c>
       <c r="D5">
-        <v>3.818694910841425</v>
+        <v>5.241453348708777</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-2.849693640197735</v>
+        <v>-2.900371278241838</v>
       </c>
       <c r="G5">
-        <v>2.490659316536247</v>
+        <v>-1.921020653671552</v>
       </c>
       <c r="H5">
-        <v>2.736604789728622</v>
+        <v>-2.128196167339116</v>
       </c>
       <c r="I5">
-        <v>1.796567395782656</v>
+        <v>-1.451190677645399</v>
       </c>
       <c r="J5">
-        <v>-2.91052663255958</v>
+        <v>-2.568189662810578</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1247,31 +1247,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-2.078248836747459</v>
+        <v>-2.355930869355016</v>
       </c>
       <c r="C6">
-        <v>3.544308304162992</v>
+        <v>3.0813106888064</v>
       </c>
       <c r="D6">
-        <v>3.379381633110052</v>
+        <v>2.911466820326202</v>
       </c>
       <c r="E6">
-        <v>2.849693640197735</v>
+        <v>2.900371278241838</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.388959000717004</v>
+        <v>3.156149687052544</v>
       </c>
       <c r="H6">
-        <v>3.38703101784544</v>
+        <v>3.108187886675787</v>
       </c>
       <c r="I6">
-        <v>3.492627954080702</v>
+        <v>3.508192682001831</v>
       </c>
       <c r="J6">
-        <v>2.248335654680929</v>
+        <v>3.072107109786521</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1279,31 +1279,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-3.2781720493548</v>
+        <v>-3.065800963017368</v>
       </c>
       <c r="C7">
-        <v>3.635376023382044</v>
+        <v>2.724813443326293</v>
       </c>
       <c r="D7">
-        <v>2.604939528684409</v>
+        <v>1.959520063057639</v>
       </c>
       <c r="E7">
-        <v>-2.490659316536247</v>
+        <v>1.921020653671552</v>
       </c>
       <c r="F7">
-        <v>-3.388959000717004</v>
+        <v>-3.156149687052544</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>-0.7990752195082508</v>
+        <v>-2.121432775478208</v>
       </c>
       <c r="I7">
-        <v>0.4585172155200827</v>
+        <v>-0.02774101792315898</v>
       </c>
       <c r="J7">
-        <v>-3.487822442158532</v>
+        <v>-2.767604937658511</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1311,31 +1311,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-3.278674436326821</v>
+        <v>-3.02208055122803</v>
       </c>
       <c r="C8">
-        <v>3.770632368888417</v>
+        <v>2.892261433985731</v>
       </c>
       <c r="D8">
-        <v>2.973714205662922</v>
+        <v>2.166394623547503</v>
       </c>
       <c r="E8">
-        <v>-2.736604789728622</v>
+        <v>2.128196167339116</v>
       </c>
       <c r="F8">
-        <v>-3.38703101784544</v>
+        <v>-3.108187886675787</v>
       </c>
       <c r="G8">
-        <v>0.7990752195082508</v>
+        <v>2.121432775478208</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6883871919935181</v>
+        <v>0.5056207522477175</v>
       </c>
       <c r="J8">
-        <v>-3.665608963564621</v>
+        <v>-2.633673066067609</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1343,31 +1343,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-3.410297521038933</v>
+        <v>-3.353713525219632</v>
       </c>
       <c r="C9">
-        <v>2.215914064081026</v>
+        <v>2.118656552782978</v>
       </c>
       <c r="D9">
-        <v>1.325820200266363</v>
+        <v>1.478862264471093</v>
       </c>
       <c r="E9">
-        <v>-1.796567395782656</v>
+        <v>1.451190677645399</v>
       </c>
       <c r="F9">
-        <v>-3.492627954080702</v>
+        <v>-3.508192682001831</v>
       </c>
       <c r="G9">
-        <v>-0.4585172155200827</v>
+        <v>0.02774101792315898</v>
       </c>
       <c r="H9">
-        <v>-0.6883871919935181</v>
+        <v>-0.5056207522477175</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-3.289031301444221</v>
+        <v>-3.175024315704038</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1375,28 +1375,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-2.379654476726118</v>
+        <v>-3.026541387992445</v>
       </c>
       <c r="C10">
-        <v>3.964416740307003</v>
+        <v>2.877181935285969</v>
       </c>
       <c r="D10">
-        <v>3.755798272031607</v>
+        <v>2.586859049921973</v>
       </c>
       <c r="E10">
-        <v>2.91052663255958</v>
+        <v>2.568189662810578</v>
       </c>
       <c r="F10">
-        <v>-2.248335654680929</v>
+        <v>-3.072107109786521</v>
       </c>
       <c r="G10">
-        <v>3.487822442158532</v>
+        <v>2.767604937658511</v>
       </c>
       <c r="H10">
-        <v>3.665608963564621</v>
+        <v>2.633673066067609</v>
       </c>
       <c r="I10">
-        <v>3.289031301444221</v>
+        <v>3.175024315704038</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1440,44 +1440,44 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F2">
-        <v>0.5800196476824288</v>
+        <v>0.5673521250123125</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="F3">
-        <v>0.8081876453848597</v>
+        <v>1.311769756366188</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1492,7 +1492,7 @@
         <v>12.5</v>
       </c>
       <c r="F4">
-        <v>1.243186337533633</v>
+        <v>0.8335627481414022</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3.108082487074975</v>
+        <v>3.840829591153802</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.611972106168202</v>
+        <v>0.8416687413508381</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1543,16 +1543,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.937753049473157</v>
+        <v>3.563375856854013</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1572,12 +1572,12 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.187908763415526</v>
+        <v>1.308718891269988</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1592,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.126506566211152</v>
+        <v>1.367040328565438</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1603,16 +1603,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.297252780636199</v>
+        <v>2.296709150532998</v>
       </c>
     </row>
   </sheetData>
